--- a/inst/templates/templateProject/Scripts/ReportingFramework/dataImportConfiguration.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/dataImportConfiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5859FC44-C9C3-47E2-8814-C3704A93F7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A31616-ADE1-475B-B0A2-7B0ACB6ABCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFiles" sheetId="2" r:id="rId1"/>
@@ -222,18 +222,6 @@
     <t>an R executable expression to set  Value for the filtered rows</t>
   </si>
   <si>
-    <t>IndividualId</t>
-  </si>
-  <si>
-    <t>OutputPathId</t>
-  </si>
-  <si>
-    <t>StudyId</t>
-  </si>
-  <si>
-    <t>SubjectId</t>
-  </si>
-  <si>
     <t>xValues</t>
   </si>
   <si>
@@ -291,12 +279,6 @@
     <t>metadata</t>
   </si>
   <si>
-    <t>Route</t>
-  </si>
-  <si>
-    <t>Dose</t>
-  </si>
-  <si>
     <t>meta data used for PK-Sim import, if not available, delete row or set all values to NA</t>
   </si>
   <si>
@@ -327,9 +309,6 @@
     <t>paste(STUD,GRPNAME,"aggregated",sep='_')</t>
   </si>
   <si>
-    <t>StudyArm</t>
-  </si>
-  <si>
     <t>Must be unique over studies and dataclasses</t>
   </si>
   <si>
@@ -361,6 +340,27 @@
   </si>
   <si>
     <t>ignored for individual data, if not "GeometricStdDev" or "ArthmetricStdDev", input is used as legend for data aggregation</t>
+  </si>
+  <si>
+    <t>studyId</t>
+  </si>
+  <si>
+    <t>studyArm</t>
+  </si>
+  <si>
+    <t>subjectId</t>
+  </si>
+  <si>
+    <t>outputPathId</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>individualId</t>
   </si>
 </sst>
 </file>
@@ -1289,12 +1289,12 @@
         <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>29</v>
@@ -1303,7 +1303,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1319,11 +1319,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576" xr:uid="{4EC38E04-0195-4099-9B3C-B5EEB192FDE8}">
-      <formula1>"tp Individual, tp Aggregated"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{6AB67869-21F7-4D2A-AC73-D5F9E7684BFF}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{4EC38E04-0195-4099-9B3C-B5EEB192FDE8}">
       <formula1>"tp Individual, tp Aggregated"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1336,7 +1333,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,12 +1384,12 @@
         <v>61</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1406,7 +1403,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1420,13 +1417,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -1434,7 +1431,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1446,12 +1443,12 @@
         <v>20</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1460,15 +1457,15 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1482,7 +1479,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1499,7 +1496,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1513,7 +1510,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1536,7 +1533,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1550,10 +1547,10 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1564,15 +1561,15 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1581,15 +1578,15 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -1598,24 +1595,24 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1691,10 +1688,10 @@
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>49</v>
@@ -1708,10 +1705,10 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>49</v>
@@ -1729,41 +1726,41 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/inst/templates/templateProject/Scripts/ReportingFramework/dataImportConfiguration.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/dataImportConfiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A31616-ADE1-475B-B0A2-7B0ACB6ABCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77092F20-19C6-4B46-9E25-FCB9C48D1273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFiles" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -330,9 +330,6 @@
     <t>ignored for individual data or if yErrorType is geometric or arthmetric</t>
   </si>
   <si>
-    <t xml:space="preserve">ignored for individual data </t>
-  </si>
-  <si>
     <t>GeometricStdDev</t>
   </si>
   <si>
@@ -361,6 +358,12 @@
   </si>
   <si>
     <t>individualId</t>
+  </si>
+  <si>
+    <t>numberOfPatients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional, ignored for individual data </t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1392,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1403,7 +1406,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1417,13 +1420,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -1431,7 +1434,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1465,7 +1468,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1547,10 +1550,10 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1603,98 +1606,98 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>66</v>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>72</v>
+      <c r="C22" t="s">
+        <v>38</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1705,10 +1708,10 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>49</v>
@@ -1716,39 +1719,39 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="9" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>97</v>
+      <c r="A26" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
@@ -1760,6 +1763,23 @@
         <v>67</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>76</v>
       </c>
     </row>

--- a/inst/templates/templateProject/Scripts/ReportingFramework/dataImportConfiguration.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/dataImportConfiguration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77092F20-19C6-4B46-9E25-FCB9C48D1273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B4E48B-186D-4E5D-BD3A-CBEE1DC3E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>PKFLAG &gt; 0</t>
   </si>
   <si>
-    <t>character, PK Sim population name</t>
-  </si>
-  <si>
     <t>Units is coded in column "dvUnit"</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t xml:space="preserve">optional, ignored for individual data </t>
+  </si>
+  <si>
+    <t>character, PK Sim population name (get available list by calling ospsuite::HumanPopulation)</t>
   </si>
 </sst>
 </file>
@@ -1292,12 +1292,12 @@
         <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>29</v>
@@ -1306,7 +1306,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
@@ -1381,18 +1381,18 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1415,18 +1415,18 @@
         <v>31</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>45</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1446,12 +1446,12 @@
         <v>20</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1460,15 +1460,15 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1508,12 +1508,12 @@
         <v>4</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1522,7 +1522,7 @@
         <v>33</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1536,12 +1536,12 @@
         <v>34</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1550,29 +1550,29 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -1581,15 +1581,15 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -1598,15 +1598,15 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -1615,24 +1615,24 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1697,10 +1697,10 @@
         <v>38</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1708,16 +1708,16 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -1725,72 +1725,82 @@
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{DE171994-DE18-49A0-B15B-9D3DD2A0A525}">
       <formula1>"identifier,timeprofile,biometrics,covariate,metadata"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F13" xr:uid="{C3D1F648-1305-4894-8D79-9B460B2E5B14}">
       <formula1>"ArithmeticStdDev, GeometricStdDev"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:F24" xr:uid="{7FE7F37D-ADB0-47C3-BB4F-A8E422CF975E}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>"""Asian_Tanaka_1996"""," ""BlackAmerican_NHANES_1997"""," ""European_ICRP_2002"""," ""Japanese_Population"""," ""MexicanAmericanWhite_NHANES_1997"""," ""Pregnant"""," ""Preterm"""," ""WhiteAmerican_NHANES_1997"""</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"""Asian_Tanaka_1996"", ""BlackAmerican_NHANES_1997"", ""European_ICRP_2002"", ""Japanese_Population"", ""MexicanAmericanWhite_NHANES_1997"", ""Pregnant"", ""Preterm"", ""WhiteAmerican_NHANES_1997"""</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/templates/templateProject/Scripts/ReportingFramework/dataImportConfiguration.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/dataImportConfiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B4E48B-186D-4E5D-BD3A-CBEE1DC3E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01F7196-02BB-4B22-A370-1B43CE2C19BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFiles" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
@@ -99,25 +96,7 @@
     <t>paste0("I",STUD,SID)</t>
   </si>
   <si>
-    <t>targetColumn</t>
-  </si>
-  <si>
-    <t>sourceColumn</t>
-  </si>
-  <si>
     <t>name of column in source csv</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>sourceUnit</t>
-  </si>
-  <si>
-    <t>filterValue</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>DataFilter</t>
@@ -364,6 +343,27 @@
   </si>
   <si>
     <t>character, PK Sim population name (get available list by calling ospsuite::HumanPopulation)</t>
+  </si>
+  <si>
+    <t>TargetColumn</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SourceColumn</t>
+  </si>
+  <si>
+    <t>SourceUnit</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>FilterValue</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,42 +1283,42 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,437 +1350,437 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/inst/templates/templateProject/Scripts/ReportingFramework/dataImportConfiguration.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/dataImportConfiguration.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01F7196-02BB-4B22-A370-1B43CE2C19BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54007249-0C00-44C7-A654-6569B181F796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFiles" sheetId="2" r:id="rId1"/>
     <sheet name="tpDictionary" sheetId="1" r:id="rId2"/>
+    <sheet name="pkDictionary" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="110">
   <si>
     <t>identifier</t>
   </si>
@@ -336,9 +337,6 @@
     <t>individualId</t>
   </si>
   <si>
-    <t>numberOfPatients</t>
-  </si>
-  <si>
     <t xml:space="preserve">optional, ignored for individual data </t>
   </si>
   <si>
@@ -364,6 +362,39 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>pkParameter</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>parameter name as defined in PKParameter.xlsx</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">errorType </t>
+  </si>
+  <si>
+    <t>errorValues</t>
+  </si>
+  <si>
+    <t>minValue</t>
+  </si>
+  <si>
+    <t>maxValue</t>
+  </si>
+  <si>
+    <t>tp Individual</t>
+  </si>
+  <si>
+    <t>numberOfIndividuals</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1300,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,11 +1351,17 @@
       <c r="C3" t="s">
         <v>41</v>
       </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{4EC38E04-0195-4099-9B3C-B5EEB192FDE8}">
-      <formula1>"tp Individual, tp Aggregated"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576" xr:uid="{4EC38E04-0195-4099-9B3C-B5EEB192FDE8}">
+      <formula1>"tp Individual, tp Aggregated, pk Individual, pk Aggregated"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{BF3D0FD8-C372-4C9B-AF7A-D5C083C7D298}">
+      <formula1>"tp Individual, tp Aggregated, pk Individual, pk Aggregated"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1336,7 +1373,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,25 +1387,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1606,7 +1643,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1618,7 +1655,7 @@
         <v>59</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1632,7 +1669,7 @@
         <v>58</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1714,7 +1751,7 @@
         <v>64</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1731,7 +1768,7 @@
         <v>65</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1804,4 +1841,448 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC4BF01-D82B-4331-8FBE-92136796A225}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:F22" xr:uid="{7D3FC895-1C62-4C80-ACAE-B748ABD8E884}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>"""Asian_Tanaka_1996"""," ""BlackAmerican_NHANES_1997"""," ""European_ICRP_2002"""," ""Japanese_Population"""," ""MexicanAmericanWhite_NHANES_1997"""," ""Pregnant"""," ""Preterm"""," ""WhiteAmerican_NHANES_1997"""</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"""Asian_Tanaka_1996"", ""BlackAmerican_NHANES_1997"", ""European_ICRP_2002"", ""Japanese_Population"", ""MexicanAmericanWhite_NHANES_1997"", ""Pregnant"", ""Preterm"", ""WhiteAmerican_NHANES_1997"""</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F12" xr:uid="{03C4157C-1F35-4628-8F8B-208C9CF451F1}">
+      <formula1>"ArithmeticStdDev, GeometricStdDev"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17:B1048576 B3:B8" xr:uid="{3416A3B7-5C21-49CB-BFB1-919AF32C8EEE}">
+      <formula1>"identifier,timeprofile,biometrics,covariate,metadata"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9:B16" xr:uid="{60B4A63D-A811-461D-A42E-AABE48080A2B}">
+      <formula1>"identifier,pkParameter,biometrics,covariate,metadata"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>